--- a/Design Documents/V2_Features.xlsx
+++ b/Design Documents/V2_Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremias/Documents/GitHub/Dyspraxia-and-the-Dragon/Design Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E0008-6593-9842-85E3-DACB6FA35E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A3281F-79C7-9047-9520-6F200ED36747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1320" windowWidth="27040" windowHeight="16260" xr2:uid="{2AF2AAD3-E514-1B43-ABF9-AC33D77B415E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>NAME</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Better Game Over screen</t>
   </si>
   <si>
-    <t>Better Dysparix Control</t>
-  </si>
-  <si>
     <t>Better Non-Dyspraxic Control</t>
   </si>
   <si>
@@ -138,6 +135,94 @@
   </si>
   <si>
     <t>Allow a human vs dragon mode</t>
+  </si>
+  <si>
+    <t>Infini: Remove AI changes</t>
+  </si>
+  <si>
+    <t>Remove the higher probability of up fireball</t>
+  </si>
+  <si>
+    <t>Make fireballs go fatser with time</t>
+  </si>
+  <si>
+    <t>Infini: Dyspraxia removal</t>
+  </si>
+  <si>
+    <t>Powerup to remove dyspraxia for a time</t>
+  </si>
+  <si>
+    <t>Critical Hits</t>
+  </si>
+  <si>
+    <t>Infini: Make fb faster with time</t>
+  </si>
+  <si>
+    <t>Hitting any character head is a critical hit</t>
+  </si>
+  <si>
+    <t>Dragon: More Animation Frames</t>
+  </si>
+  <si>
+    <t>Add more frames for the dragon animation</t>
+  </si>
+  <si>
+    <t>Allow 2 players to play as the dragon against one another</t>
+  </si>
+  <si>
+    <t>Timer and Score Rework</t>
+  </si>
+  <si>
+    <t>Change the appearance of the timer and the score for something crafty</t>
+  </si>
+  <si>
+    <t>Allow toggle between english and french</t>
+  </si>
+  <si>
+    <t>Pause menu</t>
+  </si>
+  <si>
+    <t>Add a pause menu, with "options" "main menu" and "quit game" buttons</t>
+  </si>
+  <si>
+    <t>Main Menu: Options</t>
+  </si>
+  <si>
+    <t>Add an "option" button to the main menu</t>
+  </si>
+  <si>
+    <t>Options: Language</t>
+  </si>
+  <si>
+    <t>Options: Dyslexia Font</t>
+  </si>
+  <si>
+    <t>Allow to switch fonts to dyslexic-friendly</t>
+  </si>
+  <si>
+    <t>Options: Full Screen</t>
+  </si>
+  <si>
+    <t>Toggle full screen mode</t>
+  </si>
+  <si>
+    <t>Better Dyspraxic Control</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>&gt;Using a custom curve in a tween.
+&gt;Only change the position if the distance is greater than some value (and not everytime it changes) (to avoid trembling)</t>
+  </si>
+  <si>
+    <t>Difficulty: Make initial fight simpler</t>
+  </si>
+  <si>
+    <t>Reduce fb damage. Make fb slower. Make it so you don't have top win first fight to continue story</t>
+  </si>
+  <si>
+    <t>Make game less dificult and less frustrating in general but not less frustrating physically</t>
   </si>
 </sst>
 </file>
@@ -189,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,11 +289,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -223,9 +320,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -247,15 +341,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{509F26C4-9B2F-4742-A74C-F138F90FDACB}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C21" xr:uid="{509F26C4-9B2F-4742-A74C-F138F90FDACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition descending="1" ref="B1:B21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{509F26C4-9B2F-4742-A74C-F138F90FDACB}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D31" xr:uid="{509F26C4-9B2F-4742-A74C-F138F90FDACB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition descending="1" ref="B1:B31"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{039CEBF5-0EAC-6448-8009-930E865C6699}" name="NAME" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{039CEBF5-0EAC-6448-8009-930E865C6699}" name="NAME" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{8FD46535-22B1-7F40-83A8-B40F3D9C96D1}" name="IMPORTANCE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FAE25529-F015-2340-BA95-8B754BD81DAB}" name="DESCRIPTION"/>
+    <tableColumn id="4" xr3:uid="{83B13C83-282D-9244-8F8D-B30A1CCC37D5}" name="DESCRIPTION" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FAE25529-F015-2340-BA95-8B754BD81DAB}" name="How"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,20 +653,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8CDD5-EE80-DF40-A938-8E7EE15A38CB}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="100.1640625" customWidth="1"/>
+    <col min="3" max="3" width="74" style="3" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -581,178 +677,322 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="52" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B7" s="3">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
